--- a/Конечный автомат парсера.xlsx
+++ b/Конечный автомат парсера.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="20400" windowHeight="8265"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="20400" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="ver1" sheetId="1" r:id="rId1"/>
+    <sheet name="ver2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="43">
   <si>
     <t xml:space="preserve"> +/-</t>
   </si>
@@ -91,6 +91,60 @@
   </si>
   <si>
     <t>10 — точка после в числе после условия</t>
+  </si>
+  <si>
+    <t>. / ,</t>
+  </si>
+  <si>
+    <t>Состояния</t>
+  </si>
+  <si>
+    <t>Ошибки</t>
+  </si>
+  <si>
+    <t>US — Unexpected symbol (Неожиданный символ)</t>
+  </si>
+  <si>
+    <t>0 — Вход в конечный автомат</t>
+  </si>
+  <si>
+    <t>1 — Знак перед числом</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>UC - Unknown character (Неизвестный символ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UC </t>
+  </si>
+  <si>
+    <t>2 — Ввод числа</t>
+  </si>
+  <si>
+    <t>3 — Точка в числе</t>
+  </si>
+  <si>
+    <t>4 — Знак умножения</t>
+  </si>
+  <si>
+    <t>5 — Вводим x</t>
+  </si>
+  <si>
+    <t>6 — Номер икса</t>
+  </si>
+  <si>
+    <t>EP — End Of Parsing (Конец парсинга: выход из программы)</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>UF — Unfinished formula (Незаконченная формула)</t>
+  </si>
+  <si>
+    <t>UF</t>
   </si>
 </sst>
 </file>
@@ -130,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -396,11 +450,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -467,6 +599,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -770,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,13 +1431,396 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="49.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33"/>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31">
+        <v>1</v>
+      </c>
+      <c r="C2" s="29">
+        <v>2</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="29">
+        <v>5</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10">
+        <v>6</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Конечный автомат парсера.xlsx
+++ b/Конечный автомат парсера.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton_Tsel\IdeaProjects\myProjects\LinerCalculator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8181E35-B997-4B3B-BB7D-98DC18C43C38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="20400" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="3195" yWindow="1800" windowWidth="20910" windowHeight="11835" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ver1" sheetId="1" r:id="rId1"/>
@@ -150,7 +156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -631,7 +637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -639,14 +645,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -684,9 +693,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -719,9 +728,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -754,9 +780,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -929,7 +972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -938,9 +981,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1430,17 +1473,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="49.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="56.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1825,7 +1868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
